--- a/data/pca/factorExposure/factorExposure_2012-05-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-18.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01773078307854102</v>
+        <v>-0.02196167831005682</v>
       </c>
       <c r="C2">
-        <v>-0.03339830590459502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02648182083843172</v>
+      </c>
+      <c r="D2">
+        <v>0.002981618984766913</v>
+      </c>
+      <c r="E2">
+        <v>0.02710691790855186</v>
+      </c>
+      <c r="F2">
+        <v>-0.008124413039831946</v>
+      </c>
+      <c r="G2">
+        <v>0.0125312552408601</v>
+      </c>
+      <c r="H2">
+        <v>0.050816566863749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0707298704783446</v>
+        <v>-0.08041877419799426</v>
       </c>
       <c r="C4">
-        <v>-0.06037200342908363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.0400688915103714</v>
+      </c>
+      <c r="D4">
+        <v>-0.0708965483398636</v>
+      </c>
+      <c r="E4">
+        <v>0.001142687010287746</v>
+      </c>
+      <c r="F4">
+        <v>-0.03187966138567143</v>
+      </c>
+      <c r="G4">
+        <v>0.0004155719418948595</v>
+      </c>
+      <c r="H4">
+        <v>-0.02817726065651226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1003711418589801</v>
+        <v>-0.1162824195636513</v>
       </c>
       <c r="C6">
-        <v>-0.06461473234349671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04118594832767846</v>
+      </c>
+      <c r="D6">
+        <v>-0.01382861836494079</v>
+      </c>
+      <c r="E6">
+        <v>-0.00529769508106467</v>
+      </c>
+      <c r="F6">
+        <v>-0.05413600125849084</v>
+      </c>
+      <c r="G6">
+        <v>0.01597653331461969</v>
+      </c>
+      <c r="H6">
+        <v>0.07446915776277552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04909053722033722</v>
+        <v>-0.05946361536890522</v>
       </c>
       <c r="C7">
-        <v>-0.03288998805822178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02209055574280744</v>
+      </c>
+      <c r="D7">
+        <v>-0.04096518040938</v>
+      </c>
+      <c r="E7">
+        <v>0.02162283835879653</v>
+      </c>
+      <c r="F7">
+        <v>-0.03613957492148431</v>
+      </c>
+      <c r="G7">
+        <v>-0.04302550714753137</v>
+      </c>
+      <c r="H7">
+        <v>-0.02446452573654656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03407146169659547</v>
+        <v>-0.03788261966278064</v>
       </c>
       <c r="C8">
-        <v>-0.02243536883744439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01311037441055546</v>
+      </c>
+      <c r="D8">
+        <v>-0.03947097428588946</v>
+      </c>
+      <c r="E8">
+        <v>0.004647103083197573</v>
+      </c>
+      <c r="F8">
+        <v>-0.05105929108807673</v>
+      </c>
+      <c r="G8">
+        <v>0.02247719082338858</v>
+      </c>
+      <c r="H8">
+        <v>0.02766595946462401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06465845961197192</v>
+        <v>-0.0745464101803682</v>
       </c>
       <c r="C9">
-        <v>-0.04574168739256682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02750826109371015</v>
+      </c>
+      <c r="D9">
+        <v>-0.06824393174437068</v>
+      </c>
+      <c r="E9">
+        <v>0.01979960033966105</v>
+      </c>
+      <c r="F9">
+        <v>-0.04151445965725181</v>
+      </c>
+      <c r="G9">
+        <v>-3.13640309925614e-05</v>
+      </c>
+      <c r="H9">
+        <v>-0.05203543806313494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03215902561719297</v>
+        <v>-0.0407469962253239</v>
       </c>
       <c r="C10">
-        <v>-0.03490901127207648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03597069289827064</v>
+      </c>
+      <c r="D10">
+        <v>0.1789569214124201</v>
+      </c>
+      <c r="E10">
+        <v>0.04713563505733209</v>
+      </c>
+      <c r="F10">
+        <v>-0.04256693251909426</v>
+      </c>
+      <c r="G10">
+        <v>-0.03795222266388557</v>
+      </c>
+      <c r="H10">
+        <v>0.03028403562205313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06719671395217015</v>
+        <v>-0.07602216706901524</v>
       </c>
       <c r="C11">
-        <v>-0.05168935792607847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03147991834771839</v>
+      </c>
+      <c r="D11">
+        <v>-0.06653444046469581</v>
+      </c>
+      <c r="E11">
+        <v>-0.01093099156529996</v>
+      </c>
+      <c r="F11">
+        <v>-0.02885997729117861</v>
+      </c>
+      <c r="G11">
+        <v>-0.0142927612607004</v>
+      </c>
+      <c r="H11">
+        <v>-0.09147489256386968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05346974360586825</v>
+        <v>-0.0648601357610904</v>
       </c>
       <c r="C12">
-        <v>-0.05265564258801244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03734630216735771</v>
+      </c>
+      <c r="D12">
+        <v>-0.05094592247844054</v>
+      </c>
+      <c r="E12">
+        <v>0.00903234576308631</v>
+      </c>
+      <c r="F12">
+        <v>-0.02587006920032879</v>
+      </c>
+      <c r="G12">
+        <v>-0.00805441179338166</v>
+      </c>
+      <c r="H12">
+        <v>-0.05057092579679061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05784136577099436</v>
+        <v>-0.06528178744147631</v>
       </c>
       <c r="C13">
-        <v>-0.04963332328222175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03098572353804448</v>
+      </c>
+      <c r="D13">
+        <v>-0.03900462114380615</v>
+      </c>
+      <c r="E13">
+        <v>-0.0002974957352096289</v>
+      </c>
+      <c r="F13">
+        <v>-0.001014945979084618</v>
+      </c>
+      <c r="G13">
+        <v>0.002812384329164821</v>
+      </c>
+      <c r="H13">
+        <v>-0.06543837836050047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03147012423978812</v>
+        <v>-0.03985296718324779</v>
       </c>
       <c r="C14">
-        <v>-0.03232532965605785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02514183082687205</v>
+      </c>
+      <c r="D14">
+        <v>-0.006344292309263413</v>
+      </c>
+      <c r="E14">
+        <v>0.02118346340126472</v>
+      </c>
+      <c r="F14">
+        <v>-0.02032014205706682</v>
+      </c>
+      <c r="G14">
+        <v>0.003770795743090982</v>
+      </c>
+      <c r="H14">
+        <v>-0.05688217115382704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04020177951638516</v>
+        <v>-0.04023014412343245</v>
       </c>
       <c r="C15">
-        <v>-0.01152138438418048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.001385930838925613</v>
+      </c>
+      <c r="D15">
+        <v>-0.009175489067615335</v>
+      </c>
+      <c r="E15">
+        <v>0.03968322943258149</v>
+      </c>
+      <c r="F15">
+        <v>0.0005202047081251819</v>
+      </c>
+      <c r="G15">
+        <v>0.02111752981636188</v>
+      </c>
+      <c r="H15">
+        <v>-0.05471212981583452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05610496062990138</v>
+        <v>-0.06471042331111863</v>
       </c>
       <c r="C16">
-        <v>-0.04491065948155134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02916518780537929</v>
+      </c>
+      <c r="D16">
+        <v>-0.06201560384760687</v>
+      </c>
+      <c r="E16">
+        <v>-0.0001650336558145221</v>
+      </c>
+      <c r="F16">
+        <v>-0.02645159452842075</v>
+      </c>
+      <c r="G16">
+        <v>-0.006306122290043264</v>
+      </c>
+      <c r="H16">
+        <v>-0.05601964798479048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0614594352565784</v>
+        <v>-0.06226379677705017</v>
       </c>
       <c r="C20">
-        <v>-0.03877268792813192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01786476716629441</v>
+      </c>
+      <c r="D20">
+        <v>-0.05325882428710589</v>
+      </c>
+      <c r="E20">
+        <v>0.01721931996288001</v>
+      </c>
+      <c r="F20">
+        <v>-0.02661934750754934</v>
+      </c>
+      <c r="G20">
+        <v>-0.003395253071407909</v>
+      </c>
+      <c r="H20">
+        <v>-0.04822523959876473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02502582109685495</v>
+        <v>-0.02438801436052049</v>
       </c>
       <c r="C21">
-        <v>-0.002868785726908313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.005715611733616174</v>
+      </c>
+      <c r="D21">
+        <v>-0.03329694727351773</v>
+      </c>
+      <c r="E21">
+        <v>0.07786281816693787</v>
+      </c>
+      <c r="F21">
+        <v>0.006966608808930761</v>
+      </c>
+      <c r="G21">
+        <v>0.00683613237777545</v>
+      </c>
+      <c r="H21">
+        <v>0.02243472848784884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06839470742149462</v>
+        <v>-0.06274532258416672</v>
       </c>
       <c r="C22">
-        <v>-0.0678431224555386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03909267943725454</v>
+      </c>
+      <c r="D22">
+        <v>-0.09754134418455945</v>
+      </c>
+      <c r="E22">
+        <v>0.6155169436517436</v>
+      </c>
+      <c r="F22">
+        <v>0.1134761397088256</v>
+      </c>
+      <c r="G22">
+        <v>-0.02219775498617732</v>
+      </c>
+      <c r="H22">
+        <v>0.1304915079929872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06959167197958231</v>
+        <v>-0.06322922836693493</v>
       </c>
       <c r="C23">
-        <v>-0.06719685298269255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03794478892232692</v>
+      </c>
+      <c r="D23">
+        <v>-0.09834563002938863</v>
+      </c>
+      <c r="E23">
+        <v>0.6145660366242206</v>
+      </c>
+      <c r="F23">
+        <v>0.1127983943139343</v>
+      </c>
+      <c r="G23">
+        <v>-0.02091054892323241</v>
+      </c>
+      <c r="H23">
+        <v>0.1258082724497901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06544950683554369</v>
+        <v>-0.07585655897899198</v>
       </c>
       <c r="C24">
-        <v>-0.05357773200876531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03426451283303225</v>
+      </c>
+      <c r="D24">
+        <v>-0.06358172427429033</v>
+      </c>
+      <c r="E24">
+        <v>0.007164000172931586</v>
+      </c>
+      <c r="F24">
+        <v>-0.03650030013498539</v>
+      </c>
+      <c r="G24">
+        <v>0.0008163468382482174</v>
+      </c>
+      <c r="H24">
+        <v>-0.06468295741891401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06565383504510988</v>
+        <v>-0.07523090494802899</v>
       </c>
       <c r="C25">
-        <v>-0.05975528423738376</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03949947552683129</v>
+      </c>
+      <c r="D25">
+        <v>-0.06111245396117353</v>
+      </c>
+      <c r="E25">
+        <v>0.01277899270956248</v>
+      </c>
+      <c r="F25">
+        <v>-0.03492602032734004</v>
+      </c>
+      <c r="G25">
+        <v>0.0109883759737233</v>
+      </c>
+      <c r="H25">
+        <v>-0.07062011309454228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03995310036845082</v>
+        <v>-0.04371175034929248</v>
       </c>
       <c r="C26">
-        <v>-0.01279168747039362</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.003856898724564022</v>
+      </c>
+      <c r="D26">
+        <v>-0.02805296073222993</v>
+      </c>
+      <c r="E26">
+        <v>0.0377609422957767</v>
+      </c>
+      <c r="F26">
+        <v>-0.02867903996989812</v>
+      </c>
+      <c r="G26">
+        <v>-0.01162686216509148</v>
+      </c>
+      <c r="H26">
+        <v>-0.06135700658241961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05879024824546314</v>
+        <v>-0.07563430003355598</v>
       </c>
       <c r="C28">
-        <v>-0.07362964641315119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07262842802819143</v>
+      </c>
+      <c r="D28">
+        <v>0.3168008732012728</v>
+      </c>
+      <c r="E28">
+        <v>0.03385207846858867</v>
+      </c>
+      <c r="F28">
+        <v>-0.05571764013303879</v>
+      </c>
+      <c r="G28">
+        <v>0.02386012271915212</v>
+      </c>
+      <c r="H28">
+        <v>0.001699241307202815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03787777024244768</v>
+        <v>-0.04510088800998539</v>
       </c>
       <c r="C29">
-        <v>-0.03090448840333406</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02282299260297368</v>
+      </c>
+      <c r="D29">
+        <v>-0.01039290491686638</v>
+      </c>
+      <c r="E29">
+        <v>0.0416340274322558</v>
+      </c>
+      <c r="F29">
+        <v>-0.01403226572085875</v>
+      </c>
+      <c r="G29">
+        <v>-0.01559653826047028</v>
+      </c>
+      <c r="H29">
+        <v>-0.08902180495714999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1152648229056865</v>
+        <v>-0.1310778326685069</v>
       </c>
       <c r="C30">
-        <v>-0.09984648689917332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06452092626259044</v>
+      </c>
+      <c r="D30">
+        <v>-0.09352310134550586</v>
+      </c>
+      <c r="E30">
+        <v>0.04268426730010567</v>
+      </c>
+      <c r="F30">
+        <v>-0.01183330935592645</v>
+      </c>
+      <c r="G30">
+        <v>0.03221519142845651</v>
+      </c>
+      <c r="H30">
+        <v>0.03016186285481435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03903947308523397</v>
+        <v>-0.04474420074580972</v>
       </c>
       <c r="C31">
-        <v>-0.02110880421081619</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01136471390544166</v>
+      </c>
+      <c r="D31">
+        <v>-0.02686791992620257</v>
+      </c>
+      <c r="E31">
+        <v>0.02348059358150189</v>
+      </c>
+      <c r="F31">
+        <v>-0.01339429100508419</v>
+      </c>
+      <c r="G31">
+        <v>-0.02225620803719932</v>
+      </c>
+      <c r="H31">
+        <v>-0.07072169611488091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03614657816581644</v>
+        <v>-0.03349126124739778</v>
       </c>
       <c r="C32">
-        <v>-0.02297774475553463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01176762123299873</v>
+      </c>
+      <c r="D32">
+        <v>-0.01182446797309936</v>
+      </c>
+      <c r="E32">
+        <v>0.07181242878051403</v>
+      </c>
+      <c r="F32">
+        <v>0.001584553733896939</v>
+      </c>
+      <c r="G32">
+        <v>0.03574895281207058</v>
+      </c>
+      <c r="H32">
+        <v>-0.04920264045576275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0740494978879474</v>
+        <v>-0.08873498539530728</v>
       </c>
       <c r="C33">
-        <v>-0.04679449150980099</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02924926669954718</v>
+      </c>
+      <c r="D33">
+        <v>-0.05953185263072969</v>
+      </c>
+      <c r="E33">
+        <v>0.01628054519262139</v>
+      </c>
+      <c r="F33">
+        <v>-0.00743564098718386</v>
+      </c>
+      <c r="G33">
+        <v>-0.01528112598756859</v>
+      </c>
+      <c r="H33">
+        <v>-0.06124988380360908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05226769296014067</v>
+        <v>-0.05829426988168401</v>
       </c>
       <c r="C34">
-        <v>-0.03327643316840438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01702292226171275</v>
+      </c>
+      <c r="D34">
+        <v>-0.05948351650669823</v>
+      </c>
+      <c r="E34">
+        <v>0.002421904423183279</v>
+      </c>
+      <c r="F34">
+        <v>-0.02131737637293424</v>
+      </c>
+      <c r="G34">
+        <v>0.001641657676932391</v>
+      </c>
+      <c r="H34">
+        <v>-0.04840538623273907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03591379453181405</v>
+        <v>-0.04051305591330632</v>
       </c>
       <c r="C35">
-        <v>-0.01256725131990498</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.004889502692906898</v>
+      </c>
+      <c r="D35">
+        <v>-0.01389732556737156</v>
+      </c>
+      <c r="E35">
+        <v>0.0206777224468591</v>
+      </c>
+      <c r="F35">
+        <v>0.004351783565968059</v>
+      </c>
+      <c r="G35">
+        <v>-0.01519313774363841</v>
+      </c>
+      <c r="H35">
+        <v>-0.03632013452027397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01837182205804508</v>
+        <v>-0.02486284418641606</v>
       </c>
       <c r="C36">
-        <v>-0.01552837182840287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01152255571079845</v>
+      </c>
+      <c r="D36">
+        <v>-0.01844756801403194</v>
+      </c>
+      <c r="E36">
+        <v>0.03960647176913853</v>
+      </c>
+      <c r="F36">
+        <v>-0.02149497302246219</v>
+      </c>
+      <c r="G36">
+        <v>-0.01500513902514934</v>
+      </c>
+      <c r="H36">
+        <v>-0.0537990518659745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03781828725304209</v>
+        <v>-0.04213159403684337</v>
       </c>
       <c r="C38">
-        <v>-0.006932727765557796</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-3.98613395519756e-07</v>
+      </c>
+      <c r="D38">
+        <v>-0.02151349518233857</v>
+      </c>
+      <c r="E38">
+        <v>0.05943276790258457</v>
+      </c>
+      <c r="F38">
+        <v>0.006677443671230744</v>
+      </c>
+      <c r="G38">
+        <v>0.01746883731528858</v>
+      </c>
+      <c r="H38">
+        <v>-0.03020936003548762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08694122740174992</v>
+        <v>-0.1009484277867263</v>
       </c>
       <c r="C39">
-        <v>-0.08201877290361229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05475656333332658</v>
+      </c>
+      <c r="D39">
+        <v>-0.07693065429373738</v>
+      </c>
+      <c r="E39">
+        <v>-0.01349386482775852</v>
+      </c>
+      <c r="F39">
+        <v>-0.01012884942235484</v>
+      </c>
+      <c r="G39">
+        <v>0.02478231176578569</v>
+      </c>
+      <c r="H39">
+        <v>-0.05193869616278485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06758162073707982</v>
+        <v>-0.07052628908595922</v>
       </c>
       <c r="C40">
-        <v>-0.05461879950200681</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03235565207237542</v>
+      </c>
+      <c r="D40">
+        <v>-0.008450754909891953</v>
+      </c>
+      <c r="E40">
+        <v>0.0241566441717329</v>
+      </c>
+      <c r="F40">
+        <v>0.05726089866874897</v>
+      </c>
+      <c r="G40">
+        <v>0.07676546251906961</v>
+      </c>
+      <c r="H40">
+        <v>0.08555866808500595</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0391572566750318</v>
+        <v>-0.04282515084596122</v>
       </c>
       <c r="C41">
-        <v>-0.01208673750437281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.003483527426078566</v>
+      </c>
+      <c r="D41">
+        <v>-0.03878282442988205</v>
+      </c>
+      <c r="E41">
+        <v>0.006899443852377639</v>
+      </c>
+      <c r="F41">
+        <v>0.007384831249792207</v>
+      </c>
+      <c r="G41">
+        <v>0.01096864816835367</v>
+      </c>
+      <c r="H41">
+        <v>-0.04245917691711504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0438959645221869</v>
+        <v>-0.05254253691822223</v>
       </c>
       <c r="C43">
-        <v>-0.02905350083296548</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.0182080087818602</v>
+      </c>
+      <c r="D43">
+        <v>-0.02606401708124861</v>
+      </c>
+      <c r="E43">
+        <v>0.01751359385592926</v>
+      </c>
+      <c r="F43">
+        <v>-0.01327413582158871</v>
+      </c>
+      <c r="G43">
+        <v>-0.006747113066560674</v>
+      </c>
+      <c r="H43">
+        <v>-0.051048522828824</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09104367394841328</v>
+        <v>-0.09158514298657085</v>
       </c>
       <c r="C44">
-        <v>-0.09682575656401168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06252738615081038</v>
+      </c>
+      <c r="D44">
+        <v>-0.06153421304720428</v>
+      </c>
+      <c r="E44">
+        <v>0.09937850070070768</v>
+      </c>
+      <c r="F44">
+        <v>-0.05402023828247325</v>
+      </c>
+      <c r="G44">
+        <v>0.02870982303048398</v>
+      </c>
+      <c r="H44">
+        <v>0.02473727378812891</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02553972363995286</v>
+        <v>-0.02829439047146533</v>
       </c>
       <c r="C46">
-        <v>-0.01583389828210536</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.008659565787591169</v>
+      </c>
+      <c r="D46">
+        <v>-0.03183705158373171</v>
+      </c>
+      <c r="E46">
+        <v>0.01862000822804841</v>
+      </c>
+      <c r="F46">
+        <v>-0.0177802831628989</v>
+      </c>
+      <c r="G46">
+        <v>0.00121513182031361</v>
+      </c>
+      <c r="H46">
+        <v>-0.0405460713142342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02621680763155778</v>
+        <v>-0.02904062276245866</v>
       </c>
       <c r="C47">
-        <v>-0.02147959448991809</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01374170620695656</v>
+      </c>
+      <c r="D47">
+        <v>-0.01272313366255994</v>
+      </c>
+      <c r="E47">
+        <v>0.04772833577815538</v>
+      </c>
+      <c r="F47">
+        <v>-0.01601009497718223</v>
+      </c>
+      <c r="G47">
+        <v>-0.03644516542329611</v>
+      </c>
+      <c r="H47">
+        <v>-0.03466641661778055</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02851475629058976</v>
+        <v>-0.03367558547832461</v>
       </c>
       <c r="C48">
-        <v>-0.02024368838576232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01202818637020938</v>
+      </c>
+      <c r="D48">
+        <v>-0.03190847330942627</v>
+      </c>
+      <c r="E48">
+        <v>0.04142069262171012</v>
+      </c>
+      <c r="F48">
+        <v>-0.009963300208428732</v>
+      </c>
+      <c r="G48">
+        <v>0.005691218660042757</v>
+      </c>
+      <c r="H48">
+        <v>-0.0557703895453893</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1532296845664063</v>
+        <v>-0.182020840376426</v>
       </c>
       <c r="C49">
-        <v>-0.08847187790019163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05420051495523753</v>
+      </c>
+      <c r="D49">
+        <v>-0.02205502265570763</v>
+      </c>
+      <c r="E49">
+        <v>-0.1287257174611111</v>
+      </c>
+      <c r="F49">
+        <v>-0.03132539639318797</v>
+      </c>
+      <c r="G49">
+        <v>-0.04360454708313839</v>
+      </c>
+      <c r="H49">
+        <v>0.2671464233611896</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03444587553296641</v>
+        <v>-0.04273257794213024</v>
       </c>
       <c r="C50">
-        <v>-0.02637646856877641</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01955085868101118</v>
+      </c>
+      <c r="D50">
+        <v>-0.0337943149112002</v>
+      </c>
+      <c r="E50">
+        <v>0.04822277416102633</v>
+      </c>
+      <c r="F50">
+        <v>-0.02568460628573099</v>
+      </c>
+      <c r="G50">
+        <v>-0.01767007311123848</v>
+      </c>
+      <c r="H50">
+        <v>-0.07385338642887784</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02447120165785583</v>
+        <v>-0.02666688213175485</v>
       </c>
       <c r="C51">
-        <v>-0.01446478803355293</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.009253084201787644</v>
+      </c>
+      <c r="D51">
+        <v>-0.02311702949976948</v>
+      </c>
+      <c r="E51">
+        <v>0.01535380492367103</v>
+      </c>
+      <c r="F51">
+        <v>-0.01294793307397118</v>
+      </c>
+      <c r="G51">
+        <v>0.004306354286756976</v>
+      </c>
+      <c r="H51">
+        <v>-0.01197478019973846</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1397735281802781</v>
+        <v>-0.1582167642660216</v>
       </c>
       <c r="C53">
-        <v>-0.09279072552232852</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06170556148192182</v>
+      </c>
+      <c r="D53">
+        <v>-0.02174350802191337</v>
+      </c>
+      <c r="E53">
+        <v>-0.03856186389839682</v>
+      </c>
+      <c r="F53">
+        <v>-0.01709179413442241</v>
+      </c>
+      <c r="G53">
+        <v>-0.004963163581509581</v>
+      </c>
+      <c r="H53">
+        <v>-0.155418735644762</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05252670924087424</v>
+        <v>-0.05587027995307521</v>
       </c>
       <c r="C54">
-        <v>-0.02700730558811466</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01272771104889549</v>
+      </c>
+      <c r="D54">
+        <v>-0.02900050586079116</v>
+      </c>
+      <c r="E54">
+        <v>0.04744226377696334</v>
+      </c>
+      <c r="F54">
+        <v>-0.01437658042101178</v>
+      </c>
+      <c r="G54">
+        <v>0.005973980145856363</v>
+      </c>
+      <c r="H54">
+        <v>-0.05880698737783669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09249176140811481</v>
+        <v>-0.09900315870437765</v>
       </c>
       <c r="C55">
-        <v>-0.06206653728484433</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03918882402789662</v>
+      </c>
+      <c r="D55">
+        <v>-0.02826516172191545</v>
+      </c>
+      <c r="E55">
+        <v>0.008168683882460694</v>
+      </c>
+      <c r="F55">
+        <v>-0.01770783042482532</v>
+      </c>
+      <c r="G55">
+        <v>-0.0005977469093261742</v>
+      </c>
+      <c r="H55">
+        <v>-0.1435950805332135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1389864530841734</v>
+        <v>-0.1575045121036533</v>
       </c>
       <c r="C56">
-        <v>-0.1052258669047579</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07116073763033601</v>
+      </c>
+      <c r="D56">
+        <v>-0.01616403258137206</v>
+      </c>
+      <c r="E56">
+        <v>-0.04021543298633058</v>
+      </c>
+      <c r="F56">
+        <v>-0.03940570024013155</v>
+      </c>
+      <c r="G56">
+        <v>-0.01603044549388821</v>
+      </c>
+      <c r="H56">
+        <v>-0.1599733583602756</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1188392973461147</v>
+        <v>-0.1021724070933365</v>
       </c>
       <c r="C58">
-        <v>-0.02314527710216766</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.01893620648737642</v>
+      </c>
+      <c r="D58">
+        <v>-0.05685987396138593</v>
+      </c>
+      <c r="E58">
+        <v>0.1823786530480551</v>
+      </c>
+      <c r="F58">
+        <v>-0.01688995966699211</v>
+      </c>
+      <c r="G58">
+        <v>-0.03809770154801863</v>
+      </c>
+      <c r="H58">
+        <v>0.1700958560094939</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.116015368578446</v>
+        <v>-0.1483761887010622</v>
       </c>
       <c r="C59">
-        <v>-0.08493983662553416</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08080265530694758</v>
+      </c>
+      <c r="D59">
+        <v>0.3575017631185403</v>
+      </c>
+      <c r="E59">
+        <v>0.04522378050031158</v>
+      </c>
+      <c r="F59">
+        <v>0.002176630312500616</v>
+      </c>
+      <c r="G59">
+        <v>-0.04321873229588748</v>
+      </c>
+      <c r="H59">
+        <v>0.003940049225214227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1887908017505544</v>
+        <v>-0.2215089261648683</v>
       </c>
       <c r="C60">
-        <v>-0.1176958285519544</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07727476866796</v>
+      </c>
+      <c r="D60">
+        <v>-0.02819886934824063</v>
+      </c>
+      <c r="E60">
+        <v>-0.07393340640823133</v>
+      </c>
+      <c r="F60">
+        <v>-0.04869487699727106</v>
+      </c>
+      <c r="G60">
+        <v>0.02583076915257033</v>
+      </c>
+      <c r="H60">
+        <v>0.1671867504468433</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07495071064908471</v>
+        <v>-0.08616230657524207</v>
       </c>
       <c r="C61">
-        <v>-0.0620648429146404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.04125500130681225</v>
+      </c>
+      <c r="D61">
+        <v>-0.0585631170160885</v>
+      </c>
+      <c r="E61">
+        <v>-0.01717676843089716</v>
+      </c>
+      <c r="F61">
+        <v>-0.004704292391337947</v>
+      </c>
+      <c r="G61">
+        <v>-0.01035390691468983</v>
+      </c>
+      <c r="H61">
+        <v>-0.0684292832769348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1212683616756406</v>
+        <v>-0.138973325668407</v>
       </c>
       <c r="C62">
-        <v>-0.08039411972937539</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05305886462487813</v>
+      </c>
+      <c r="D62">
+        <v>-0.02340680173248674</v>
+      </c>
+      <c r="E62">
+        <v>-0.05481741690350075</v>
+      </c>
+      <c r="F62">
+        <v>-0.01132599469344902</v>
+      </c>
+      <c r="G62">
+        <v>0.02816935947327824</v>
+      </c>
+      <c r="H62">
+        <v>-0.1541019750869258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05080551115981555</v>
+        <v>-0.05044021282288411</v>
       </c>
       <c r="C63">
-        <v>-0.03139696345369796</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.0160147902203998</v>
+      </c>
+      <c r="D63">
+        <v>-0.02635436119927786</v>
+      </c>
+      <c r="E63">
+        <v>0.04919932344254309</v>
+      </c>
+      <c r="F63">
+        <v>-0.01111923793959447</v>
+      </c>
+      <c r="G63">
+        <v>0.03262536488821448</v>
+      </c>
+      <c r="H63">
+        <v>-0.08408403983027286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1040243942408592</v>
+        <v>-0.1111888087650151</v>
       </c>
       <c r="C64">
-        <v>-0.04195202341717068</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01490073846206793</v>
+      </c>
+      <c r="D64">
+        <v>-0.0528136990048262</v>
+      </c>
+      <c r="E64">
+        <v>0.02135798112295576</v>
+      </c>
+      <c r="F64">
+        <v>-0.05565563485102749</v>
+      </c>
+      <c r="G64">
+        <v>0.0248557028594508</v>
+      </c>
+      <c r="H64">
+        <v>-0.07085221393198547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1125593303301342</v>
+        <v>-0.1241227985698563</v>
       </c>
       <c r="C65">
-        <v>-0.06624376728568108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04060881549894046</v>
+      </c>
+      <c r="D65">
+        <v>-0.00550659587150439</v>
+      </c>
+      <c r="E65">
+        <v>-0.0006856987821424188</v>
+      </c>
+      <c r="F65">
+        <v>-0.06256139026601255</v>
+      </c>
+      <c r="G65">
+        <v>0.03627555919594301</v>
+      </c>
+      <c r="H65">
+        <v>0.09075802511294889</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1340308137129042</v>
+        <v>-0.1520841633919531</v>
       </c>
       <c r="C66">
-        <v>-0.09226592047823926</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05586105742228153</v>
+      </c>
+      <c r="D66">
+        <v>-0.1139179868228873</v>
+      </c>
+      <c r="E66">
+        <v>-0.05231513846332809</v>
+      </c>
+      <c r="F66">
+        <v>-0.02401088735759283</v>
+      </c>
+      <c r="G66">
+        <v>0.02900386854060132</v>
+      </c>
+      <c r="H66">
+        <v>-0.1245281760120309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07012254106521293</v>
+        <v>-0.07778457244939593</v>
       </c>
       <c r="C67">
-        <v>-0.02090975002047692</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.007045612870722623</v>
+      </c>
+      <c r="D67">
+        <v>-0.03131503120328387</v>
+      </c>
+      <c r="E67">
+        <v>0.02723266771924033</v>
+      </c>
+      <c r="F67">
+        <v>-0.01424451444492249</v>
+      </c>
+      <c r="G67">
+        <v>-0.003821230480348651</v>
+      </c>
+      <c r="H67">
+        <v>-0.02516975608345508</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05933877575019475</v>
+        <v>-0.06942377558996975</v>
       </c>
       <c r="C68">
-        <v>-0.05005591747052694</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.0483716958563273</v>
+      </c>
+      <c r="D68">
+        <v>0.2644515214874443</v>
+      </c>
+      <c r="E68">
+        <v>0.04902337193166748</v>
+      </c>
+      <c r="F68">
+        <v>-0.01169551530889928</v>
+      </c>
+      <c r="G68">
+        <v>-0.01131838759011277</v>
+      </c>
+      <c r="H68">
+        <v>-0.02282203061684393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04833436288153097</v>
+        <v>-0.04761605584088183</v>
       </c>
       <c r="C69">
-        <v>-0.0229251895140382</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.007585523797610019</v>
+      </c>
+      <c r="D69">
+        <v>-0.02151130543531363</v>
+      </c>
+      <c r="E69">
+        <v>0.02452641454774813</v>
+      </c>
+      <c r="F69">
+        <v>0.004191840838844545</v>
+      </c>
+      <c r="G69">
+        <v>-0.008577491661588839</v>
+      </c>
+      <c r="H69">
+        <v>-0.06431595265221723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005009308524361477</v>
+        <v>-0.01919656421284649</v>
       </c>
       <c r="C70">
-        <v>0.003240046761718753</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0006205639147782278</v>
+      </c>
+      <c r="D70">
+        <v>0.0009363384827505179</v>
+      </c>
+      <c r="E70">
+        <v>-0.02766983124906909</v>
+      </c>
+      <c r="F70">
+        <v>-0.01658641980626389</v>
+      </c>
+      <c r="G70">
+        <v>-0.01777891315567099</v>
+      </c>
+      <c r="H70">
+        <v>0.058513375227339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06253282201331435</v>
+        <v>-0.07317704498219881</v>
       </c>
       <c r="C71">
-        <v>-0.0477461710251617</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04669363276067912</v>
+      </c>
+      <c r="D71">
+        <v>0.2948809946584644</v>
+      </c>
+      <c r="E71">
+        <v>0.04507848387592597</v>
+      </c>
+      <c r="F71">
+        <v>-0.03967563356764191</v>
+      </c>
+      <c r="G71">
+        <v>-0.008773997101441919</v>
+      </c>
+      <c r="H71">
+        <v>-0.01255491081300054</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.134082795834593</v>
+        <v>-0.1544244719585369</v>
       </c>
       <c r="C72">
-        <v>-0.07119633339900071</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04312056851758029</v>
+      </c>
+      <c r="D72">
+        <v>-0.002315555521757758</v>
+      </c>
+      <c r="E72">
+        <v>-0.08857034528817688</v>
+      </c>
+      <c r="F72">
+        <v>0.1653398814651868</v>
+      </c>
+      <c r="G72">
+        <v>0.1117037687200941</v>
+      </c>
+      <c r="H72">
+        <v>-0.02188589385405545</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.249563242451236</v>
+        <v>-0.2808209484194479</v>
       </c>
       <c r="C73">
-        <v>-0.1418646381033494</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.07774451321026195</v>
+      </c>
+      <c r="D73">
+        <v>-0.09187770674248669</v>
+      </c>
+      <c r="E73">
+        <v>-0.1888896374030631</v>
+      </c>
+      <c r="F73">
+        <v>-0.07955855585828073</v>
+      </c>
+      <c r="G73">
+        <v>-0.1807415918352211</v>
+      </c>
+      <c r="H73">
+        <v>0.5546522029341503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07304454332405845</v>
+        <v>-0.08854125765207667</v>
       </c>
       <c r="C74">
-        <v>-0.08361803011908565</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06291522547873783</v>
+      </c>
+      <c r="D74">
+        <v>-0.02917606739050186</v>
+      </c>
+      <c r="E74">
+        <v>-0.006061297076167024</v>
+      </c>
+      <c r="F74">
+        <v>0.0126551322382156</v>
+      </c>
+      <c r="G74">
+        <v>-0.03607909287770104</v>
+      </c>
+      <c r="H74">
+        <v>-0.1304974045422529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09345407975110294</v>
+        <v>-0.1016727252970568</v>
       </c>
       <c r="C75">
-        <v>-0.06020314246104603</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03139608975900059</v>
+      </c>
+      <c r="D75">
+        <v>-0.008806666265228762</v>
+      </c>
+      <c r="E75">
+        <v>-0.00221283613634427</v>
+      </c>
+      <c r="F75">
+        <v>-0.0448039265718061</v>
+      </c>
+      <c r="G75">
+        <v>-0.01958817714509683</v>
+      </c>
+      <c r="H75">
+        <v>-0.1214629300925669</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1172278664336432</v>
+        <v>-0.1325285066348873</v>
       </c>
       <c r="C76">
-        <v>-0.09855016667101185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.067447370331409</v>
+      </c>
+      <c r="D76">
+        <v>-0.05106103336676552</v>
+      </c>
+      <c r="E76">
+        <v>0.01025851737844478</v>
+      </c>
+      <c r="F76">
+        <v>-0.06085163207578972</v>
+      </c>
+      <c r="G76">
+        <v>-0.008083500272793056</v>
+      </c>
+      <c r="H76">
+        <v>-0.1613517778262637</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1168860410144231</v>
+        <v>-0.1138100243236786</v>
       </c>
       <c r="C77">
-        <v>-0.05260410808668436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01614477674960888</v>
+      </c>
+      <c r="D77">
+        <v>-0.01618922131767969</v>
+      </c>
+      <c r="E77">
+        <v>-0.01863325837282737</v>
+      </c>
+      <c r="F77">
+        <v>-0.2170005727139972</v>
+      </c>
+      <c r="G77">
+        <v>0.8896409990498544</v>
+      </c>
+      <c r="H77">
+        <v>0.1360942094804581</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08826402072201624</v>
+        <v>-0.11470793001549</v>
       </c>
       <c r="C78">
-        <v>-0.04885959544654828</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.0335545645158159</v>
+      </c>
+      <c r="D78">
+        <v>-0.09115992029385044</v>
+      </c>
+      <c r="E78">
+        <v>0.06017830488095987</v>
+      </c>
+      <c r="F78">
+        <v>-0.01783562315999063</v>
+      </c>
+      <c r="G78">
+        <v>0.03724378842656075</v>
+      </c>
+      <c r="H78">
+        <v>0.1069190117201164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.137454350469904</v>
+        <v>-0.150508390497798</v>
       </c>
       <c r="C79">
-        <v>-0.1004253095798603</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06054585288273034</v>
+      </c>
+      <c r="D79">
+        <v>-0.02763867274995015</v>
+      </c>
+      <c r="E79">
+        <v>-0.02516055334795869</v>
+      </c>
+      <c r="F79">
+        <v>-0.01800335828444374</v>
+      </c>
+      <c r="G79">
+        <v>-0.02158147741911232</v>
+      </c>
+      <c r="H79">
+        <v>-0.1577983071638738</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04006950234614069</v>
+        <v>-0.04037743581862391</v>
       </c>
       <c r="C80">
-        <v>-0.01885616926654297</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.007650301381121895</v>
+      </c>
+      <c r="D80">
+        <v>-0.02873161653539598</v>
+      </c>
+      <c r="E80">
+        <v>-0.002282032339326057</v>
+      </c>
+      <c r="F80">
+        <v>0.02133517543887851</v>
+      </c>
+      <c r="G80">
+        <v>-0.03713467795152742</v>
+      </c>
+      <c r="H80">
+        <v>-0.04437268453650047</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1106858784137316</v>
+        <v>-0.1181376606186814</v>
       </c>
       <c r="C81">
-        <v>-0.07000312608853639</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.0381575298331406</v>
+      </c>
+      <c r="D81">
+        <v>-0.02921934610168635</v>
+      </c>
+      <c r="E81">
+        <v>-0.003630323020007575</v>
+      </c>
+      <c r="F81">
+        <v>-0.0297389259415435</v>
+      </c>
+      <c r="G81">
+        <v>-0.059316488925495</v>
+      </c>
+      <c r="H81">
+        <v>-0.179255182146358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1188290158063229</v>
+        <v>-0.1275349090652447</v>
       </c>
       <c r="C82">
-        <v>-0.08668097440254013</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.05429212014071497</v>
+      </c>
+      <c r="D82">
+        <v>-0.03239216566210248</v>
+      </c>
+      <c r="E82">
+        <v>-0.02126752080975577</v>
+      </c>
+      <c r="F82">
+        <v>-0.05517063743046601</v>
+      </c>
+      <c r="G82">
+        <v>-0.05240250154186955</v>
+      </c>
+      <c r="H82">
+        <v>-0.1743379003988388</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07180747190658981</v>
+        <v>-0.07859660319483987</v>
       </c>
       <c r="C83">
-        <v>-0.01310857067178271</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.005427372354686819</v>
+      </c>
+      <c r="D83">
+        <v>-0.05204284331062176</v>
+      </c>
+      <c r="E83">
+        <v>0.01300565326980938</v>
+      </c>
+      <c r="F83">
+        <v>-0.03011090124925588</v>
+      </c>
+      <c r="G83">
+        <v>-0.08747153976002428</v>
+      </c>
+      <c r="H83">
+        <v>0.04112569591796986</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02609058508640009</v>
+        <v>-0.03773357706439186</v>
       </c>
       <c r="C84">
-        <v>-0.02500925421334859</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.02116152238826297</v>
+      </c>
+      <c r="D84">
+        <v>-0.03651772786257943</v>
+      </c>
+      <c r="E84">
+        <v>0.02467979582436074</v>
+      </c>
+      <c r="F84">
+        <v>0.04955270759985504</v>
+      </c>
+      <c r="G84">
+        <v>-0.05918892995685793</v>
+      </c>
+      <c r="H84">
+        <v>-0.01797880184699446</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1142987454884809</v>
+        <v>-0.1159984290197226</v>
       </c>
       <c r="C85">
-        <v>-0.06686496930319122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03216854980987172</v>
+      </c>
+      <c r="D85">
+        <v>-0.02637009824553123</v>
+      </c>
+      <c r="E85">
+        <v>0.002849475929687051</v>
+      </c>
+      <c r="F85">
+        <v>-0.06437162164794791</v>
+      </c>
+      <c r="G85">
+        <v>-0.02470196751392768</v>
+      </c>
+      <c r="H85">
+        <v>-0.1421641765953746</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04710729002648538</v>
+        <v>-0.04956567282370421</v>
       </c>
       <c r="C86">
-        <v>-0.02516451731817726</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01193802808790854</v>
+      </c>
+      <c r="D86">
+        <v>-0.02179340399467846</v>
+      </c>
+      <c r="E86">
+        <v>0.05820549162933564</v>
+      </c>
+      <c r="F86">
+        <v>-0.02708202348262639</v>
+      </c>
+      <c r="G86">
+        <v>-0.007986819859556545</v>
+      </c>
+      <c r="H86">
+        <v>-0.01836866024229876</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.118149781155093</v>
+        <v>-0.1213891967402148</v>
       </c>
       <c r="C87">
-        <v>-0.07935104471616033</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03963571818654675</v>
+      </c>
+      <c r="D87">
+        <v>-0.06986167645846274</v>
+      </c>
+      <c r="E87">
+        <v>0.01486536074748748</v>
+      </c>
+      <c r="F87">
+        <v>-0.01643954115920049</v>
+      </c>
+      <c r="G87">
+        <v>0.1018492907408527</v>
+      </c>
+      <c r="H87">
+        <v>-0.003845799236887315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0524537253344489</v>
+        <v>-0.05758544376577616</v>
       </c>
       <c r="C88">
-        <v>-0.03325414328092519</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.019537122184276</v>
+      </c>
+      <c r="D88">
+        <v>-0.02387927145839327</v>
+      </c>
+      <c r="E88">
+        <v>0.01850354190556353</v>
+      </c>
+      <c r="F88">
+        <v>-0.01033746594560179</v>
+      </c>
+      <c r="G88">
+        <v>0.009726658430424012</v>
+      </c>
+      <c r="H88">
+        <v>-0.06556117847605179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0843421317126911</v>
+        <v>-0.1075809668374064</v>
       </c>
       <c r="C89">
-        <v>-0.07332642343446839</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07304977807363783</v>
+      </c>
+      <c r="D89">
+        <v>0.3283964674617204</v>
+      </c>
+      <c r="E89">
+        <v>0.07338803763206676</v>
+      </c>
+      <c r="F89">
+        <v>-0.06727376080997538</v>
+      </c>
+      <c r="G89">
+        <v>-0.02258897258159102</v>
+      </c>
+      <c r="H89">
+        <v>0.002364172655320259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07460568881276161</v>
+        <v>-0.0895278074846914</v>
       </c>
       <c r="C90">
-        <v>-0.05857327725821072</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.05657040778404067</v>
+      </c>
+      <c r="D90">
+        <v>0.3047408340481559</v>
+      </c>
+      <c r="E90">
+        <v>0.06330592810962113</v>
+      </c>
+      <c r="F90">
+        <v>0.002283299956375042</v>
+      </c>
+      <c r="G90">
+        <v>-0.003038616254666487</v>
+      </c>
+      <c r="H90">
+        <v>-0.02116113334927983</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07776998032932105</v>
+        <v>-0.08657253943966293</v>
       </c>
       <c r="C91">
-        <v>-0.06517354643480612</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04169627923700407</v>
+      </c>
+      <c r="D91">
+        <v>-0.02386212241289344</v>
+      </c>
+      <c r="E91">
+        <v>0.01360686275343259</v>
+      </c>
+      <c r="F91">
+        <v>-0.00796838167350958</v>
+      </c>
+      <c r="G91">
+        <v>-0.04460209091274788</v>
+      </c>
+      <c r="H91">
+        <v>-0.08783299447681833</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08549804378414323</v>
+        <v>-0.1005999609625533</v>
       </c>
       <c r="C92">
-        <v>-0.07344511533232881</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06781302053633641</v>
+      </c>
+      <c r="D92">
+        <v>0.3435991880388166</v>
+      </c>
+      <c r="E92">
+        <v>0.05119582165357997</v>
+      </c>
+      <c r="F92">
+        <v>-0.03363183898056859</v>
+      </c>
+      <c r="G92">
+        <v>-0.001472764184347033</v>
+      </c>
+      <c r="H92">
+        <v>-0.01927586468526812</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06803452730323598</v>
+        <v>-0.08662508691341078</v>
       </c>
       <c r="C93">
-        <v>-0.06234452932027464</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06362333398783476</v>
+      </c>
+      <c r="D93">
+        <v>0.3014359586416229</v>
+      </c>
+      <c r="E93">
+        <v>0.03460669238399624</v>
+      </c>
+      <c r="F93">
+        <v>-0.04340934781382636</v>
+      </c>
+      <c r="G93">
+        <v>-0.0003444265754012504</v>
+      </c>
+      <c r="H93">
+        <v>0.01126663788614298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1242749254414964</v>
+        <v>-0.1273337642454754</v>
       </c>
       <c r="C94">
-        <v>-0.07398628917384036</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03434590201923782</v>
+      </c>
+      <c r="D94">
+        <v>-0.05123969769974275</v>
+      </c>
+      <c r="E94">
+        <v>-0.02219799829490787</v>
+      </c>
+      <c r="F94">
+        <v>-0.02703632522936859</v>
+      </c>
+      <c r="G94">
+        <v>-0.04564939382528725</v>
+      </c>
+      <c r="H94">
+        <v>-0.09320564489714757</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1116734412472814</v>
+        <v>-0.1202292017832971</v>
       </c>
       <c r="C95">
-        <v>-0.05452283032729784</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02227931168674564</v>
+      </c>
+      <c r="D95">
+        <v>-0.06270182994038404</v>
+      </c>
+      <c r="E95">
+        <v>-0.01242460980681879</v>
+      </c>
+      <c r="F95">
+        <v>-0.02758681498104496</v>
+      </c>
+      <c r="G95">
+        <v>-0.01255245349463727</v>
+      </c>
+      <c r="H95">
+        <v>-0.00536365828025488</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2022198305123283</v>
+        <v>-0.2174041427226565</v>
       </c>
       <c r="C97">
-        <v>-0.06696375145490475</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.0217318705662211</v>
+      </c>
+      <c r="D97">
+        <v>0.04560118104992595</v>
+      </c>
+      <c r="E97">
+        <v>-0.1417071865360731</v>
+      </c>
+      <c r="F97">
+        <v>0.9019708588091473</v>
+      </c>
+      <c r="G97">
+        <v>0.1577429487605083</v>
+      </c>
+      <c r="H97">
+        <v>-0.006637554248613412</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2402956957442524</v>
+        <v>-0.2687003912177243</v>
       </c>
       <c r="C98">
-        <v>-0.1061155680635032</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.04948911273898498</v>
+      </c>
+      <c r="D98">
+        <v>-0.06037004279282008</v>
+      </c>
+      <c r="E98">
+        <v>-0.161279978005579</v>
+      </c>
+      <c r="F98">
+        <v>-0.04716477599008811</v>
+      </c>
+      <c r="G98">
+        <v>-0.2611351361977435</v>
+      </c>
+      <c r="H98">
+        <v>0.2103904182071246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5350844007808889</v>
+        <v>-0.3304052406736837</v>
       </c>
       <c r="C99">
-        <v>0.8336251683122611</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9307858713294827</v>
+      </c>
+      <c r="D99">
+        <v>0.07644233099240805</v>
+      </c>
+      <c r="E99">
+        <v>0.0416989180857924</v>
+      </c>
+      <c r="F99">
+        <v>-0.04581418464614528</v>
+      </c>
+      <c r="G99">
+        <v>-0.01344673132880205</v>
+      </c>
+      <c r="H99">
+        <v>-0.04425062010962536</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03795924621816358</v>
+        <v>-0.04520775306038238</v>
       </c>
       <c r="C101">
-        <v>-0.03091548863213557</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02291098206618954</v>
+      </c>
+      <c r="D101">
+        <v>-0.01089926195300307</v>
+      </c>
+      <c r="E101">
+        <v>0.04086085489380184</v>
+      </c>
+      <c r="F101">
+        <v>-0.01344433620361487</v>
+      </c>
+      <c r="G101">
+        <v>-0.01565745876788326</v>
+      </c>
+      <c r="H101">
+        <v>-0.08823267704412287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
